--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_19.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>603252.4889952402</v>
+        <v>665033.4872788218</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216109</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484428</v>
+        <v>492028.9342484453</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7710349.980331578</v>
+        <v>7710349.980331577</v>
       </c>
     </row>
     <row r="11">
@@ -659,19 +659,19 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>385.7751744984014</v>
       </c>
       <c r="G2" t="n">
-        <v>36.896849838219</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -865,7 +865,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>121.2222279946777</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -883,7 +883,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>201.5752889817578</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +896,22 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>242.3589329207699</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>214.5368897552614</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1060,7 +1060,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>93.90692437986564</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -1072,7 +1072,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>209.5867542297959</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>54.41711717638043</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>355.2484939859502</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1291,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -1300,16 +1300,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>113.5770391806065</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1348,13 +1348,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>62.37342505026641</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1382,7 +1382,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>129.3727203283466</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -1424,10 +1424,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>347.6097274870452</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225706</v>
+        <v>18.05677735225745</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>154.025442045436</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1667,7 +1667,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>133.2083887875897</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1771,7 +1771,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>28.46824604904403</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1847,7 +1847,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>163.9521757218124</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,10 +1895,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>206.485501777222</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -2017,10 +2017,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2059,7 +2059,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>54.66258501924847</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2087,7 +2087,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>161.8384861377971</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2138,7 +2138,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>174.2076243880243</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -2251,7 +2251,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>24.34318456170498</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.0567773522574</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2479,7 +2479,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>3.423392126085129</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225773</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>18.05677735225723</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225751</v>
+        <v>18.05677735225808</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3187,7 +3187,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -3199,13 +3199,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>24.34318456170523</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3253,7 +3253,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>187.7618434332973</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3329,7 +3329,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864833</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -3424,7 +3424,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>86.20228614855917</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
@@ -3436,13 +3436,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
@@ -3478,7 +3478,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>136.0564930766997</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3512,7 +3512,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948852</v>
       </c>
       <c r="G38" t="n">
         <v>397.3838530629687</v>
@@ -3661,7 +3661,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>31.24391673888151</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
@@ -3676,7 +3676,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3898,7 +3898,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -3907,16 +3907,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>35.34780583513566</v>
       </c>
       <c r="G43" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>47.90525155920253</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -4135,7 +4135,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4198,7 +4198,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>165.2047610440499</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>587.4583232833319</v>
+        <v>1342.565776426349</v>
       </c>
       <c r="C2" t="n">
-        <v>553.3562545071593</v>
+        <v>904.4233036097719</v>
       </c>
       <c r="D2" t="n">
-        <v>124.7745802444276</v>
+        <v>468.5135187842164</v>
       </c>
       <c r="E2" t="n">
-        <v>95.04023944312686</v>
+        <v>438.7791779829156</v>
       </c>
       <c r="F2" t="n">
-        <v>71.21321389273865</v>
+        <v>49.1072845501869</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501869</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501869</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501869</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501869</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501869</v>
       </c>
       <c r="L2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501869</v>
       </c>
       <c r="M2" t="n">
-        <v>267.8706684926505</v>
+        <v>49.1072845501869</v>
       </c>
       <c r="N2" t="n">
-        <v>267.8706684926505</v>
+        <v>524.3060841805678</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.008730489131</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1739.711376797693</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.210162756288</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509345</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2371.712353693182</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2151.64512656622</v>
       </c>
       <c r="U2" t="n">
-        <v>1437.961127397434</v>
+        <v>2151.64512656622</v>
       </c>
       <c r="V2" t="n">
-        <v>1437.961127397434</v>
+        <v>1789.028176500047</v>
       </c>
       <c r="W2" t="n">
-        <v>1033.105672808467</v>
+        <v>1788.213125951484</v>
       </c>
       <c r="X2" t="n">
-        <v>1018.003613428182</v>
+        <v>1773.111066571199</v>
       </c>
       <c r="Y2" t="n">
-        <v>609.7174897278356</v>
+        <v>1364.824942870852</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414796</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>448.822568378122</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.7322795246752</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.6118648516289</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>176.2280264677905</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>90.84293673397443</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501869</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501869</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501869</v>
       </c>
       <c r="K3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501869</v>
       </c>
       <c r="L3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501869</v>
       </c>
       <c r="M3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501869</v>
       </c>
       <c r="N3" t="n">
-        <v>319.8519551513677</v>
+        <v>49.1072845501869</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>446.7326829940176</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028996</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477379</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807949</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.936145603142</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.068709842022</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212428</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>630.7799396378264</v>
+        <v>988.2632708524427</v>
       </c>
       <c r="C4" t="n">
-        <v>630.7799396378264</v>
+        <v>815.7015593356676</v>
       </c>
       <c r="D4" t="n">
-        <v>464.9019468393491</v>
+        <v>649.8235665371903</v>
       </c>
       <c r="E4" t="n">
-        <v>464.9019468393491</v>
+        <v>480.0655627879277</v>
       </c>
       <c r="F4" t="n">
-        <v>288.1948928011053</v>
+        <v>303.3585087496839</v>
       </c>
       <c r="G4" t="n">
-        <v>122.603617826933</v>
+        <v>137.7672337755116</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>137.7672337755116</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501869</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>135.6869697148768</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>410.4454242860123</v>
       </c>
       <c r="L4" t="n">
-        <v>761.43086230084</v>
+        <v>828.6553060539734</v>
       </c>
       <c r="M4" t="n">
-        <v>761.43086230084</v>
+        <v>1288.139173234886</v>
       </c>
       <c r="N4" t="n">
-        <v>1181.483761245743</v>
+        <v>1519.995309448889</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1939.664558674671</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2287.171452645013</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509345</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2433.946406214717</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>2433.946406214717</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>2188.066959793172</v>
       </c>
       <c r="U4" t="n">
-        <v>1270.644793662241</v>
+        <v>2188.066959793172</v>
       </c>
       <c r="V4" t="n">
-        <v>1148.198098718122</v>
+        <v>1901.111451663602</v>
       </c>
       <c r="W4" t="n">
-        <v>876.1716943044139</v>
+        <v>1629.085047249894</v>
       </c>
       <c r="X4" t="n">
-        <v>630.7799396378264</v>
+        <v>1383.693292583306</v>
       </c>
       <c r="Y4" t="n">
-        <v>630.7799396378264</v>
+        <v>1180.08188957143</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1167.069156190556</v>
+        <v>1197.718769568168</v>
       </c>
       <c r="C5" t="n">
-        <v>922.2621532402836</v>
+        <v>1163.616700791996</v>
       </c>
       <c r="D5" t="n">
-        <v>890.3927724551322</v>
+        <v>727.7069159664402</v>
       </c>
       <c r="E5" t="n">
-        <v>461.8110981924006</v>
+        <v>293.9321711247354</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>270.1051455743471</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>270.1051455743471</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>267.8706684926505</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M5" t="n">
-        <v>1107.976466382457</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N5" t="n">
-        <v>1107.976466382457</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P5" t="n">
-        <v>1528.02936532736</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>1613.531556264254</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V5" t="n">
-        <v>1613.531556264254</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W5" t="n">
-        <v>1612.716505715692</v>
+        <v>1643.366119093304</v>
       </c>
       <c r="X5" t="n">
-        <v>1597.614446335406</v>
+        <v>1224.223655672615</v>
       </c>
       <c r="Y5" t="n">
-        <v>1189.32832263506</v>
+        <v>1219.977936012672</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N6" t="n">
-        <v>319.8519551513677</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1113.00182921349</v>
+        <v>968.896903337504</v>
       </c>
       <c r="C7" t="n">
-        <v>940.4401176967148</v>
+        <v>796.3351918207289</v>
       </c>
       <c r="D7" t="n">
-        <v>774.5621248982375</v>
+        <v>630.4571990222516</v>
       </c>
       <c r="E7" t="n">
-        <v>604.8041211489747</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L7" t="n">
-        <v>689.2685070454004</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M7" t="n">
-        <v>689.2685070454004</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1109.321405990304</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O7" t="n">
-        <v>1528.990655216085</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T7" t="n">
-        <v>1304.820447932477</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U7" t="n">
-        <v>1304.820447932477</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1304.820447932477</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W7" t="n">
-        <v>1304.820447932477</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1304.820447932477</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y7" t="n">
-        <v>1304.820447932477</v>
+        <v>1160.715522056491</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>849.4753099687134</v>
+        <v>1385.472033935714</v>
       </c>
       <c r="C8" t="n">
-        <v>411.3328371521367</v>
+        <v>947.3295611191371</v>
       </c>
       <c r="D8" t="n">
-        <v>379.4634563669853</v>
+        <v>511.4197762935816</v>
       </c>
       <c r="E8" t="n">
-        <v>349.7291155656845</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F8" t="n">
-        <v>325.9020900152963</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>325.9020900152963</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>36.77193545851252</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851252</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>36.77193545851252</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>36.77193545851252</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>36.77193545851252</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M8" t="n">
-        <v>491.8246367576049</v>
+        <v>141.0418768474983</v>
       </c>
       <c r="N8" t="n">
-        <v>491.8246367576049</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="O8" t="n">
-        <v>759.3373055743843</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>1214.390006873477</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>1669.442708172569</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925626</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1754.944899109463</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1699.978114082816</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>1699.978114082816</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V8" t="n">
-        <v>1699.978114082816</v>
+        <v>1831.934434009412</v>
       </c>
       <c r="W8" t="n">
-        <v>1699.163063534253</v>
+        <v>1427.078979420445</v>
       </c>
       <c r="X8" t="n">
-        <v>1684.061004153968</v>
+        <v>1411.97692004016</v>
       </c>
       <c r="Y8" t="n">
-        <v>1275.774880453621</v>
+        <v>1407.731200380218</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498054</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864476</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.3969304330009</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599546</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761162</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230005</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851252</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>36.77193545851252</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J9" t="n">
-        <v>36.77193545851252</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="K9" t="n">
-        <v>36.77193545851252</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="L9" t="n">
-        <v>36.77193545851252</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="M9" t="n">
-        <v>36.77193545851252</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="N9" t="n">
-        <v>217.6808149457046</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="O9" t="n">
-        <v>672.733516244797</v>
+        <v>515.0619848335836</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543889</v>
+        <v>1175.902039375362</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937321</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385704</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716274</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114677</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.7333607503477</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295685</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>379.3569822952336</v>
+        <v>785.9943193530034</v>
       </c>
       <c r="C10" t="n">
-        <v>379.3569822952336</v>
+        <v>613.4326078362284</v>
       </c>
       <c r="D10" t="n">
-        <v>213.4789894967563</v>
+        <v>447.554615037751</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4789894967563</v>
+        <v>447.554615037751</v>
       </c>
       <c r="F10" t="n">
-        <v>36.77193545851252</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>36.77193545851252</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>36.77193545851252</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851252</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>123.3516206232024</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>398.110075194338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>398.110075194338</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>853.1627764934303</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1250.734748835512</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1670.403998061294</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1670.403998061294</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925626</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1817.178951630998</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1657.937582928994</v>
+        <v>2533.918723136188</v>
       </c>
       <c r="T10" t="n">
-        <v>1412.058136507449</v>
+        <v>2288.039276714643</v>
       </c>
       <c r="U10" t="n">
-        <v>1133.625135760555</v>
+        <v>2009.606275967748</v>
       </c>
       <c r="V10" t="n">
-        <v>1133.625135760555</v>
+        <v>1722.650767838178</v>
       </c>
       <c r="W10" t="n">
-        <v>861.5987313468463</v>
+        <v>1450.62436342447</v>
       </c>
       <c r="X10" t="n">
-        <v>798.5952717001126</v>
+        <v>1205.232608757882</v>
       </c>
       <c r="Y10" t="n">
-        <v>571.1756010142208</v>
+        <v>977.8129380719906</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2523.375184062126</v>
+        <v>2252.656868168566</v>
       </c>
       <c r="C11" t="n">
-        <v>2085.232711245548</v>
+        <v>1814.51439535199</v>
       </c>
       <c r="D11" t="n">
-        <v>1649.322926419992</v>
+        <v>1378.604610526434</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.548181578287</v>
+        <v>944.8298656847292</v>
       </c>
       <c r="F11" t="n">
-        <v>787.6807519874951</v>
+        <v>516.962436093937</v>
       </c>
       <c r="G11" t="n">
-        <v>386.282920610759</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H11" t="n">
-        <v>97.15276605397523</v>
+        <v>97.15276605397516</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111523</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J11" t="n">
-        <v>96.73597668111523</v>
+        <v>521.7292312988361</v>
       </c>
       <c r="K11" t="n">
-        <v>96.73597668111523</v>
+        <v>1356.079523257014</v>
       </c>
       <c r="L11" t="n">
-        <v>1155.608606729857</v>
+        <v>1356.079523257014</v>
       </c>
       <c r="M11" t="n">
-        <v>2312.656441940408</v>
+        <v>1356.079523257014</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940408</v>
+        <v>2481.810506693461</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510714</v>
+        <v>3461.990173263767</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.14598334411</v>
+        <v>4290.300048097163</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302705</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055761</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239598</v>
+        <v>4753.146960239595</v>
       </c>
       <c r="T11" t="n">
-        <v>4533.079733112637</v>
+        <v>4533.079733112633</v>
       </c>
       <c r="U11" t="n">
-        <v>4533.079733112637</v>
+        <v>4273.85743042965</v>
       </c>
       <c r="V11" t="n">
-        <v>4181.958796257036</v>
+        <v>3911.240480363476</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.103341668069</v>
+        <v>3506.38502577451</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.96087824738</v>
+        <v>3087.242562353821</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.674754547033</v>
+        <v>2678.956438653474</v>
       </c>
     </row>
     <row r="12">
@@ -5100,40 +5100,40 @@
         <v>496.4512605090503</v>
       </c>
       <c r="D12" t="n">
-        <v>401.3609716556036</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E12" t="n">
-        <v>307.2405569825573</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F12" t="n">
-        <v>223.8567185987189</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G12" t="n">
-        <v>138.4716288649028</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111523</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I12" t="n">
-        <v>96.73597668111523</v>
+        <v>96.77217639691919</v>
       </c>
       <c r="J12" t="n">
-        <v>96.73597668111523</v>
+        <v>421.3305013631315</v>
       </c>
       <c r="K12" t="n">
-        <v>96.73597668111523</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L12" t="n">
-        <v>96.73597668111523</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M12" t="n">
-        <v>96.73597668111523</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N12" t="n">
-        <v>96.73597668111523</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3408549543107</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P12" t="n">
         <v>1102.064021433509</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>947.2320137580466</v>
+        <v>947.2320137580464</v>
       </c>
       <c r="C13" t="n">
-        <v>774.6703022412715</v>
+        <v>774.6703022412713</v>
       </c>
       <c r="D13" t="n">
-        <v>608.7923094427942</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E13" t="n">
-        <v>439.0343056935314</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F13" t="n">
-        <v>262.3272516552876</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111523</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111523</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111523</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J13" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K13" t="n">
         <v>458.0741164169406</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849017</v>
+        <v>876.2839981849016</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365815</v>
+        <v>1335.767865365814</v>
       </c>
       <c r="N13" t="n">
         <v>1778.026668523459</v>
@@ -5221,16 +5221,16 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R13" t="n">
-        <v>2713.395586583914</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S13" t="n">
         <v>2695.15641754123</v>
       </c>
       <c r="T13" t="n">
-        <v>2449.276971119686</v>
+        <v>2449.276971119685</v>
       </c>
       <c r="U13" t="n">
-        <v>2170.843970372791</v>
+        <v>2170.84397037279</v>
       </c>
       <c r="V13" t="n">
         <v>1883.888462243221</v>
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2522.958394689264</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C14" t="n">
-        <v>2084.815921872688</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D14" t="n">
-        <v>1648.906137047132</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.131392205427</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F14" t="n">
-        <v>787.2639626146351</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G14" t="n">
-        <v>385.866131237899</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H14" t="n">
-        <v>96.73597668111523</v>
+        <v>97.15276605397516</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111523</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J14" t="n">
-        <v>96.73597668111523</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="K14" t="n">
-        <v>96.73597668111523</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="L14" t="n">
-        <v>96.73597668111523</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="M14" t="n">
-        <v>1253.783811891666</v>
+        <v>1186.925458503957</v>
       </c>
       <c r="N14" t="n">
-        <v>2312.656441940408</v>
+        <v>2312.656441940404</v>
       </c>
       <c r="O14" t="n">
-        <v>3292.836108510714</v>
+        <v>3292.83610851071</v>
       </c>
       <c r="P14" t="n">
-        <v>4121.14598334411</v>
+        <v>4121.145983344106</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.644769302705</v>
+        <v>4667.644769302701</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055761</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="S14" t="n">
-        <v>4753.146960239598</v>
+        <v>4753.146960239595</v>
       </c>
       <c r="T14" t="n">
-        <v>4533.079733112637</v>
+        <v>4533.079733112633</v>
       </c>
       <c r="U14" t="n">
-        <v>4273.857430429654</v>
+        <v>4273.85743042965</v>
       </c>
       <c r="V14" t="n">
-        <v>3911.24048036348</v>
+        <v>3911.240480363476</v>
       </c>
       <c r="W14" t="n">
-        <v>3776.686552295208</v>
+        <v>3506.38502577451</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.544088874519</v>
+        <v>3087.242562353821</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.257965174172</v>
+        <v>2678.956438653474</v>
       </c>
     </row>
     <row r="15">
@@ -5337,40 +5337,40 @@
         <v>496.4512605090503</v>
       </c>
       <c r="D15" t="n">
-        <v>401.3609716556036</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E15" t="n">
-        <v>307.2405569825573</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F15" t="n">
-        <v>223.8567185987189</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G15" t="n">
-        <v>138.4716288649028</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111523</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I15" t="n">
-        <v>96.73597668111523</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J15" t="n">
-        <v>96.73597668111523</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K15" t="n">
-        <v>96.73597668111523</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L15" t="n">
-        <v>96.73597668111523</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M15" t="n">
-        <v>96.73597668111523</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N15" t="n">
-        <v>96.73597668111523</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3408549543107</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P15" t="n">
         <v>1102.064021433509</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>947.2320137580465</v>
+        <v>806.2298140987272</v>
       </c>
       <c r="C16" t="n">
-        <v>774.6703022412714</v>
+        <v>633.6681025819521</v>
       </c>
       <c r="D16" t="n">
-        <v>608.7923094427941</v>
+        <v>467.7901097834748</v>
       </c>
       <c r="E16" t="n">
-        <v>439.0343056935314</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F16" t="n">
-        <v>262.3272516552876</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G16" t="n">
-        <v>96.73597668111523</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="H16" t="n">
-        <v>96.73597668111523</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111523</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J16" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K16" t="n">
         <v>458.0741164169406</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2839981849017</v>
+        <v>876.2839981849016</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365815</v>
+        <v>1335.767865365814</v>
       </c>
       <c r="N16" t="n">
         <v>1778.026668523459</v>
@@ -5461,25 +5461,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S16" t="n">
-        <v>2695.15641754123</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T16" t="n">
-        <v>2449.276971119685</v>
+        <v>2308.274771460366</v>
       </c>
       <c r="U16" t="n">
-        <v>2170.843970372791</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V16" t="n">
-        <v>1883.888462243221</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W16" t="n">
-        <v>1611.862057829513</v>
+        <v>1470.859858170194</v>
       </c>
       <c r="X16" t="n">
-        <v>1366.470303162925</v>
+        <v>1225.468103503606</v>
       </c>
       <c r="Y16" t="n">
-        <v>1139.050632477034</v>
+        <v>998.0484328177142</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2252.656868168569</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C17" t="n">
-        <v>1814.514395351993</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D17" t="n">
-        <v>1648.906137047132</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E17" t="n">
-        <v>1215.131392205427</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F17" t="n">
-        <v>787.2639626146351</v>
+        <v>787.6807519874951</v>
       </c>
       <c r="G17" t="n">
-        <v>385.866131237899</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H17" t="n">
-        <v>96.73597668111523</v>
+        <v>97.15276605397516</v>
       </c>
       <c r="I17" t="n">
-        <v>96.73597668111523</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J17" t="n">
-        <v>96.73597668111523</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="K17" t="n">
-        <v>96.73597668111523</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="L17" t="n">
-        <v>96.73597668111523</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="M17" t="n">
-        <v>1186.925458503961</v>
+        <v>1186.925458503957</v>
       </c>
       <c r="N17" t="n">
-        <v>2312.656441940408</v>
+        <v>2312.656441940404</v>
       </c>
       <c r="O17" t="n">
-        <v>3292.836108510714</v>
+        <v>3292.83610851071</v>
       </c>
       <c r="P17" t="n">
-        <v>4121.14598334411</v>
+        <v>4121.145983344106</v>
       </c>
       <c r="Q17" t="n">
-        <v>4667.644769302705</v>
+        <v>4667.644769302701</v>
       </c>
       <c r="R17" t="n">
-        <v>4836.798834055761</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="S17" t="n">
-        <v>4753.146960239598</v>
+        <v>4753.146960239595</v>
       </c>
       <c r="T17" t="n">
-        <v>4533.079733112637</v>
+        <v>4544.575746323208</v>
       </c>
       <c r="U17" t="n">
-        <v>4273.857430429654</v>
+        <v>4544.575746323208</v>
       </c>
       <c r="V17" t="n">
-        <v>3911.24048036348</v>
+        <v>4181.958796257035</v>
       </c>
       <c r="W17" t="n">
-        <v>3506.385025774513</v>
+        <v>3777.103341668068</v>
       </c>
       <c r="X17" t="n">
-        <v>3087.242562353824</v>
+        <v>3357.960878247379</v>
       </c>
       <c r="Y17" t="n">
-        <v>2678.956438653477</v>
+        <v>2949.674754547032</v>
       </c>
     </row>
     <row r="18">
@@ -5574,40 +5574,40 @@
         <v>496.4512605090503</v>
       </c>
       <c r="D18" t="n">
-        <v>401.3609716556036</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E18" t="n">
-        <v>307.2405569825573</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F18" t="n">
-        <v>223.8567185987189</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G18" t="n">
-        <v>138.4716288649028</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H18" t="n">
-        <v>96.73597668111523</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I18" t="n">
-        <v>96.73597668111523</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J18" t="n">
-        <v>96.73597668111523</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K18" t="n">
-        <v>96.73597668111523</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L18" t="n">
-        <v>96.73597668111523</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M18" t="n">
-        <v>96.73597668111523</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N18" t="n">
-        <v>96.73597668111523</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3408549543107</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P18" t="n">
         <v>1102.064021433509</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1175.794137292997</v>
+        <v>947.2320137580464</v>
       </c>
       <c r="C19" t="n">
-        <v>1003.232425776222</v>
+        <v>774.6703022412714</v>
       </c>
       <c r="D19" t="n">
-        <v>837.3544329777442</v>
+        <v>608.7923094427941</v>
       </c>
       <c r="E19" t="n">
-        <v>667.5964292284815</v>
+        <v>439.0343056935314</v>
       </c>
       <c r="F19" t="n">
-        <v>490.8893751902377</v>
+        <v>262.3272516552876</v>
       </c>
       <c r="G19" t="n">
-        <v>325.2981002160654</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="H19" t="n">
-        <v>185.3959259064399</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I19" t="n">
-        <v>96.73597668111523</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J19" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K19" t="n">
         <v>458.0741164169406</v>
       </c>
       <c r="L19" t="n">
-        <v>876.2839981849017</v>
+        <v>876.2839981849016</v>
       </c>
       <c r="M19" t="n">
-        <v>1335.767865365815</v>
+        <v>1335.767865365814</v>
       </c>
       <c r="N19" t="n">
         <v>1778.026668523459</v>
@@ -5695,28 +5695,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R19" t="n">
-        <v>2691.977765289286</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S19" t="n">
-        <v>2691.977765289286</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.098318867741</v>
+        <v>2449.276971119685</v>
       </c>
       <c r="U19" t="n">
-        <v>2167.665318120847</v>
+        <v>2170.84397037279</v>
       </c>
       <c r="V19" t="n">
-        <v>2112.450585778171</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W19" t="n">
-        <v>1840.424181364463</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X19" t="n">
-        <v>1595.032426697876</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y19" t="n">
-        <v>1367.612756011984</v>
+        <v>1139.050632477033</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2522.958394689264</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C20" t="n">
-        <v>2084.815921872688</v>
+        <v>1814.51439535199</v>
       </c>
       <c r="D20" t="n">
-        <v>1648.906137047132</v>
+        <v>1378.604610526434</v>
       </c>
       <c r="E20" t="n">
         <v>1215.131392205427</v>
       </c>
       <c r="F20" t="n">
-        <v>787.2639626146351</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G20" t="n">
-        <v>385.866131237899</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H20" t="n">
-        <v>96.73597668111529</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I20" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J20" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="K20" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="L20" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="M20" t="n">
-        <v>1186.92545850396</v>
+        <v>1186.925458503958</v>
       </c>
       <c r="N20" t="n">
-        <v>2312.656441940407</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="O20" t="n">
-        <v>3292.836108510714</v>
+        <v>3292.836108510712</v>
       </c>
       <c r="P20" t="n">
-        <v>4121.145983344109</v>
+        <v>4121.145983344108</v>
       </c>
       <c r="Q20" t="n">
-        <v>4667.644769302704</v>
+        <v>4667.644769302702</v>
       </c>
       <c r="R20" t="n">
-        <v>4836.79883405576</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S20" t="n">
-        <v>4836.79883405576</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T20" t="n">
-        <v>4616.731606928799</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U20" t="n">
-        <v>4357.509304245816</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V20" t="n">
-        <v>4181.542006884175</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W20" t="n">
-        <v>3776.686552295208</v>
+        <v>3506.38502577451</v>
       </c>
       <c r="X20" t="n">
-        <v>3357.544088874519</v>
+        <v>3087.242562353821</v>
       </c>
       <c r="Y20" t="n">
-        <v>2949.257965174172</v>
+        <v>2678.956438653474</v>
       </c>
     </row>
     <row r="21">
@@ -5823,25 +5823,25 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H21" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I21" t="n">
-        <v>96.7359766811152</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J21" t="n">
-        <v>96.7359766811152</v>
+        <v>282.3408549543107</v>
       </c>
       <c r="K21" t="n">
-        <v>96.7359766811152</v>
+        <v>282.3408549543107</v>
       </c>
       <c r="L21" t="n">
-        <v>96.7359766811152</v>
+        <v>282.3408549543107</v>
       </c>
       <c r="M21" t="n">
-        <v>96.7359766811152</v>
+        <v>282.3408549543107</v>
       </c>
       <c r="N21" t="n">
-        <v>96.7359766811152</v>
+        <v>282.3408549543107</v>
       </c>
       <c r="O21" t="n">
         <v>282.3408549543107</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>806.2298140987276</v>
+        <v>947.2320137580464</v>
       </c>
       <c r="C22" t="n">
-        <v>633.6681025819527</v>
+        <v>774.6703022412714</v>
       </c>
       <c r="D22" t="n">
-        <v>467.7901097834753</v>
+        <v>608.7923094427941</v>
       </c>
       <c r="E22" t="n">
-        <v>298.0321060342126</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F22" t="n">
-        <v>121.3250519959688</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G22" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="H22" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I22" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J22" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K22" t="n">
         <v>458.0741164169406</v>
@@ -5935,25 +5935,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S22" t="n">
-        <v>2554.154217881911</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T22" t="n">
-        <v>2308.274771460367</v>
+        <v>2449.276971119685</v>
       </c>
       <c r="U22" t="n">
-        <v>2029.841770713472</v>
+        <v>2170.84397037279</v>
       </c>
       <c r="V22" t="n">
-        <v>1742.886262583902</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W22" t="n">
-        <v>1470.859858170194</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X22" t="n">
-        <v>1225.468103503606</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y22" t="n">
-        <v>998.0484328177147</v>
+        <v>1139.050632477034</v>
       </c>
     </row>
     <row r="23">
@@ -6063,22 +6063,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M24" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N24" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O24" t="n">
         <v>287.8657185439749</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>790.3368563937639</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>617.7751448769889</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>617.7751448769889</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>448.0171411277262</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>271.3100870894824</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>105.7188121153101</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>105.7188121153101</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W25" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.155475112751</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6224,10 +6224,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>306.120802776629</v>
       </c>
       <c r="K26" t="n">
-        <v>102.2608402707796</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L26" t="n">
         <v>306.120802776629</v>
@@ -6300,22 +6300,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N27" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O27" t="n">
         <v>287.8657185439749</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>970.9960463903948</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>798.4343348736197</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>462.7983383258797</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W28" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6537,22 +6537,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N30" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O30" t="n">
         <v>287.8657185439749</v>
@@ -6655,7 +6655,7 @@
         <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W31" t="n">
         <v>1617.386921419177</v>
@@ -6774,22 +6774,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M33" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N33" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O33" t="n">
         <v>287.8657185439749</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1008.757289365886</v>
+        <v>811.7546776883923</v>
       </c>
       <c r="C34" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716173</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731399</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238772</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>126.8499155856334</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>126.8499155856334</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6883,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2473.041003752035</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2194.60800300514</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V34" t="n">
-        <v>1907.65249487557</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W34" t="n">
-        <v>1635.626090461862</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X34" t="n">
-        <v>1390.234335795275</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y34" t="n">
-        <v>1200.575908084873</v>
+        <v>1003.57329640738</v>
       </c>
     </row>
     <row r="35">
@@ -6941,40 +6941,40 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L35" t="n">
-        <v>1021.77365348828</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M35" t="n">
-        <v>2178.821488698831</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N35" t="n">
-        <v>3304.552472135278</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O35" t="n">
-        <v>4284.732138705584</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
@@ -7011,22 +7011,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M36" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N36" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O36" t="n">
         <v>287.8657185439749</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>790.3368563937643</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C37" t="n">
-        <v>703.2638400820881</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D37" t="n">
-        <v>537.3858472836108</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E37" t="n">
-        <v>367.6278435343481</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F37" t="n">
-        <v>190.9207894961043</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7117,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878952</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176948</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755404</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008509</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1726.993304878939</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1454.966900465231</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1209.575145798643</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1554751127514</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7151,13 +7151,13 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
         <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
         <v>793.2056155771595</v>
@@ -7178,46 +7178,46 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L38" t="n">
-        <v>306.120802776629</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M38" t="n">
-        <v>1463.16863798718</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7248,22 +7248,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M39" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N39" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O39" t="n">
         <v>287.8657185439749</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>970.9960463903951</v>
+        <v>811.7546776883919</v>
       </c>
       <c r="C40" t="n">
-        <v>798.4343348736201</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D40" t="n">
-        <v>632.5563420751428</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E40" t="n">
-        <v>462.7983383258801</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F40" t="n">
-        <v>286.0912842876363</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>120.500009313464</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
         <v>102.2608402707796</v>
@@ -7357,25 +7357,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2473.041003752034</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2194.608003005139</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>1907.65249487557</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W40" t="n">
-        <v>1635.626090461861</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X40" t="n">
-        <v>1390.234335795274</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y40" t="n">
-        <v>1162.814665109382</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="41">
@@ -7391,16 +7391,16 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H41" t="n">
         <v>102.6776296436396</v>
@@ -7415,25 +7415,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L41" t="n">
-        <v>306.120802776629</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M41" t="n">
-        <v>1463.16863798718</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
         <v>5029.390139722817</v>
@@ -7448,13 +7448,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X41" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7485,22 +7485,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="K42" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="L42" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M42" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N42" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O42" t="n">
         <v>287.8657185439749</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1008.757289365886</v>
+        <v>811.7546776883919</v>
       </c>
       <c r="C43" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716169</v>
       </c>
       <c r="D43" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731397</v>
       </c>
       <c r="E43" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238769</v>
       </c>
       <c r="F43" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7570,7 +7570,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
         <v>881.8088617745661</v>
@@ -7609,10 +7609,10 @@
         <v>1476.384721759858</v>
       </c>
       <c r="X43" t="n">
-        <v>1427.995578770765</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y43" t="n">
-        <v>1200.575908084873</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="44">
@@ -7652,46 +7652,46 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L44" t="n">
-        <v>306.1208027766299</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M44" t="n">
-        <v>1463.168637987181</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7722,22 +7722,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="K45" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="L45" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M45" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N45" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O45" t="n">
         <v>287.8657185439749</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>868.8551150562604</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C46" t="n">
-        <v>868.8551150562604</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D46" t="n">
-        <v>702.9771222577831</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E46" t="n">
-        <v>533.2191185085204</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F46" t="n">
-        <v>356.5120644702766</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7828,28 +7828,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2538.261260176948</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>1726.993304878939</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1288.093404461139</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1060.673733775247</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7985,19 +7985,19 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>479.9987875054354</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773362</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773361</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8067,16 +8067,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>401.64181660993</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773362</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8140,16 +8140,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>234.1981173878819</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -8216,25 +8216,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>424.2958575201044</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8304,16 +8304,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,25 +8371,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>296.9562613211783</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8459,22 +8459,22 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>459.6491932314065</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
-        <v>270.2148169866459</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314065</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314066</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,7 +8529,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8541,19 +8541,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>182.7362419062547</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>459.6491932314065</v>
+        <v>138.4873165037805</v>
       </c>
       <c r="P9" t="n">
-        <v>459.6491932314065</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314063</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8614,19 +8614,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314065</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>401.5878508505875</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821538</v>
@@ -8687,19 +8687,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>429.2861157754757</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1069.568313180548</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,13 +8763,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.03656536949901579</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8781,10 +8781,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234297</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8933,10 +8933,10 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>1101.201496790749</v>
       </c>
       <c r="N14" t="n">
-        <v>1069.568313180548</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9000,13 +9000,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9018,10 +9018,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234297</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1101.201496790753</v>
+        <v>1101.201496790749</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -9237,10 +9237,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9255,10 +9255,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234297</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1101.201496790753</v>
+        <v>1101.201496790751</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -9474,10 +9474,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>161.152732437109</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9492,7 +9492,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>828.0031984638366</v>
@@ -9711,10 +9711,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9729,7 +9729,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>828.0031984638366</v>
@@ -9872,13 +9872,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -9948,10 +9948,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9966,7 +9966,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>828.0031984638366</v>
@@ -10185,10 +10185,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10203,7 +10203,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>828.0031984638366</v>
@@ -10422,10 +10422,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10440,7 +10440,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>828.0031984638366</v>
@@ -10589,7 +10589,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>928.8008214318188</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -10601,7 +10601,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10659,10 +10659,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10677,7 +10677,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>828.0031984638366</v>
@@ -10826,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>205.9191540463125</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -10896,10 +10896,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10914,7 +10914,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>828.0031984638366</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>205.9191540463125</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M41" t="n">
         <v>1168.735187081365</v>
@@ -11133,10 +11133,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11151,7 +11151,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>828.0031984638366</v>
@@ -11300,7 +11300,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>205.9191540463134</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -11370,10 +11370,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11388,7 +11388,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>828.0031984638366</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>268.0111327346221</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23312,10 +23312,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>11.38105307846649</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627262</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>268.0111327346227</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>267.5985112554873</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>267.5985112554876</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23783,10 +23783,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>11.38105307846978</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>229.4233680290254</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23975,7 +23975,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>267.5985112554907</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>184.7831561774875</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24139,7 +24139,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>139.5921776627256</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>84.34995760698628</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627256</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>69.71657238081418</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627258</v>
+        <v>139.5921776627252</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>114.159968004824</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>37.38363054573546</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>84.63380825304814</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>139.592177662726</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>120.4463752142717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25597,7 +25597,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>139.5921776627257</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>195.0325855607191</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>77.73307607587172</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>644542.9699138878</v>
+        <v>644542.9699138876</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>644542.9699138878</v>
+        <v>644542.9699138874</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>644542.9699138878</v>
+        <v>644542.9699138874</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>644542.9699138877</v>
+        <v>644542.9699138874</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>671743.4197751243</v>
+        <v>671743.4197751242</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>671743.4197751242</v>
+        <v>671743.4197751243</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>671743.4197751244</v>
+        <v>671743.4197751243</v>
       </c>
     </row>
   </sheetData>
@@ -26314,22 +26314,22 @@
         <v>254669.9769479441</v>
       </c>
       <c r="C2" t="n">
-        <v>254669.9769479441</v>
+        <v>254669.976947944</v>
       </c>
       <c r="D2" t="n">
         <v>254669.9769479441</v>
       </c>
       <c r="E2" t="n">
-        <v>240123.8515365464</v>
+        <v>240123.8515365463</v>
       </c>
       <c r="F2" t="n">
-        <v>240123.8515365465</v>
+        <v>240123.8515365463</v>
       </c>
       <c r="G2" t="n">
-        <v>240123.8515365464</v>
+        <v>240123.8515365463</v>
       </c>
       <c r="H2" t="n">
-        <v>240123.8515365464</v>
+        <v>240123.8515365463</v>
       </c>
       <c r="I2" t="n">
         <v>250257.3524652424</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039035</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390606</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.80667200177</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520284</v>
+        <v>161735.0752101143</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18364.7156328394</v>
+        <v>18364.71563283952</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.8294856138</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784466</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.61108850916</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104685</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169168.0932697598</v>
+        <v>125788.3839715074</v>
       </c>
       <c r="C4" t="n">
-        <v>169168.0932697598</v>
+        <v>113504.4062182507</v>
       </c>
       <c r="D4" t="n">
-        <v>161077.0551897637</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="E4" t="n">
-        <v>773.6821211687736</v>
+        <v>773.6821211687732</v>
       </c>
       <c r="F4" t="n">
-        <v>773.6821211687736</v>
+        <v>773.6821211687732</v>
       </c>
       <c r="G4" t="n">
-        <v>773.6821211687736</v>
+        <v>773.6821211687732</v>
       </c>
       <c r="H4" t="n">
-        <v>773.6821211687734</v>
+        <v>773.6821211687733</v>
       </c>
       <c r="I4" t="n">
         <v>806.3323907826023</v>
@@ -26448,13 +26448,13 @@
         <v>806.3323907826023</v>
       </c>
       <c r="M4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907825613</v>
       </c>
       <c r="N4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907825614</v>
       </c>
       <c r="O4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907826024</v>
       </c>
       <c r="P4" t="n">
         <v>806.3323907826023</v>
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814204</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.27094846951</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764756</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764756</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="G5" t="n">
-        <v>73519.34227764756</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="H5" t="n">
-        <v>73519.34227764755</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
+        <v>77718.23860579252</v>
+      </c>
+      <c r="N5" t="n">
+        <v>77718.23860579252</v>
+      </c>
+      <c r="O5" t="n">
+        <v>77718.23860579252</v>
+      </c>
+      <c r="P5" t="n">
         <v>77718.2386057925</v>
-      </c>
-      <c r="N5" t="n">
-        <v>77718.2386057925</v>
-      </c>
-      <c r="O5" t="n">
-        <v>77718.2386057925</v>
-      </c>
-      <c r="P5" t="n">
-        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-116114.205118748</v>
+        <v>-147779.7997856089</v>
       </c>
       <c r="C6" t="n">
-        <v>26077.09554096196</v>
+        <v>49612.50179402962</v>
       </c>
       <c r="D6" t="n">
-        <v>21036.84413770909</v>
+        <v>66953.04616793572</v>
       </c>
       <c r="E6" t="n">
-        <v>-57968.46661429837</v>
+        <v>4019.193372818881</v>
       </c>
       <c r="F6" t="n">
-        <v>165830.8271377301</v>
+        <v>165754.2685829331</v>
       </c>
       <c r="G6" t="n">
-        <v>165830.82713773</v>
+        <v>165754.2685829332</v>
       </c>
       <c r="H6" t="n">
-        <v>165830.8271377301</v>
+        <v>165754.2685829332</v>
       </c>
       <c r="I6" t="n">
-        <v>153368.0658358278</v>
+        <v>153344.8414964451</v>
       </c>
       <c r="J6" t="n">
-        <v>60718.31612367707</v>
+        <v>11101.72764367086</v>
       </c>
       <c r="K6" t="n">
-        <v>171732.7814686673</v>
+        <v>157895.54856144</v>
       </c>
       <c r="L6" t="n">
-        <v>162785.1703801581</v>
+        <v>171709.5571292846</v>
       </c>
       <c r="M6" t="n">
-        <v>-15058.20514180115</v>
+        <v>36719.61251628126</v>
       </c>
       <c r="N6" t="n">
-        <v>171732.7814686673</v>
+        <v>171709.5571292847</v>
       </c>
       <c r="O6" t="n">
-        <v>171732.7814686673</v>
+        <v>171709.5571292847</v>
       </c>
       <c r="P6" t="n">
-        <v>171732.7814686673</v>
+        <v>171709.5571292847</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773362</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314065</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.19970851394</v>
+        <v>1209.199708513939</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.19970851394</v>
+        <v>1209.199708513939</v>
       </c>
       <c r="G4" t="n">
-        <v>1209.19970851394</v>
+        <v>1209.199708513939</v>
       </c>
       <c r="H4" t="n">
         <v>1209.19970851394</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773362</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052075</v>
       </c>
       <c r="D4" t="n">
-        <v>35.3533357113021</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.5505152825339</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>69.06079487080524</v>
+        <v>69.06079487080569</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773362</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052075</v>
       </c>
       <c r="L4" t="n">
-        <v>35.3533357113021</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825336</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773362</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052075</v>
       </c>
       <c r="L4" t="n">
-        <v>35.3533357113021</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825339</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,19 +27379,19 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>37.81358079648294</v>
       </c>
       <c r="G2" t="n">
-        <v>360.4870032247497</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,7 +27594,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>162.8637250535961</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>23.57018499727505</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27616,22 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>191.4021151676411</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>400</v>
-      </c>
-      <c r="E5" t="n">
-        <v>5.14113987318342</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>71.70196325595452</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>400</v>
-      </c>
-      <c r="X5" t="n">
-        <v>400</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27780,7 +27780,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>74.15349933190447</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,19 +27825,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>33.83389772753338</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>163.4494376793113</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>3.742286579561494</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,16 +28020,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,7 +28059,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>44.07191583437675</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,13 +28068,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>180.5644120696552</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>-2.895907565613612e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -34705,19 +34705,19 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>479.9987875054354</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773362</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773361</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34787,16 +34787,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>401.64181660993</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773362</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34860,16 +34860,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>234.1981173878819</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -34936,25 +34936,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>424.2958575201044</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35024,16 +35024,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,25 +35091,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>296.9562613211783</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35179,22 +35179,22 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>459.6491932314065</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
-        <v>270.2148169866459</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314065</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314066</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697542</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35261,19 +35261,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>182.7362419062547</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>459.6491932314065</v>
+        <v>138.4873165037805</v>
       </c>
       <c r="P9" t="n">
-        <v>459.6491932314065</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314063</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314065</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>401.5878508505875</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>429.2861157754757</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1069.568313180548</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.03656536949901579</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35501,10 +35501,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234297</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35653,10 +35653,10 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>1101.201496790749</v>
       </c>
       <c r="N14" t="n">
-        <v>1069.568313180548</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>170.8626916697549</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35738,10 +35738,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234297</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35890,7 +35890,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1101.201496790753</v>
+        <v>1101.201496790749</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -35905,7 +35905,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>170.8626916697549</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,10 +35957,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35975,10 +35975,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234297</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36127,7 +36127,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1101.201496790753</v>
+        <v>1101.201496790751</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -36194,10 +36194,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>161.152732437109</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36212,7 +36212,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>828.0031984638366</v>
@@ -36431,10 +36431,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36449,7 +36449,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>828.0031984638366</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -36668,10 +36668,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36686,7 +36686,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>828.0031984638366</v>
@@ -36905,10 +36905,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36923,7 +36923,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>828.0031984638366</v>
@@ -37142,10 +37142,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37160,7 +37160,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>828.0031984638366</v>
@@ -37233,13 +37233,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645588</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37309,7 +37309,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>928.8008214318188</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -37321,7 +37321,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37397,7 +37397,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>828.0031984638366</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37476,7 +37476,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
@@ -37546,7 +37546,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>205.9191540463125</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37634,7 +37634,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>828.0031984638366</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37713,7 +37713,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37783,7 +37783,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>205.9191540463125</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M41" t="n">
         <v>1168.735187081365</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37871,7 +37871,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>828.0031984638366</v>
@@ -37935,25 +37935,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960967</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645588</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165066</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
         <v>169.8916917821539</v>
@@ -38020,7 +38020,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>205.9191540463134</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38108,7 +38108,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>828.0031984638366</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
